--- a/zxkj-modules/zxkj-platform/src/main/resources/template/jinxiangqingdan2.xlsx
+++ b/zxkj-modules/zxkj-platform/src/main/resources/template/jinxiangqingdan2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="19890" windowHeight="7590" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="示范样例" sheetId="3" state="hidden" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="106">
   <si>
     <t>序号</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>库存采购-库存商品</t>
+  </si>
+  <si>
+    <t>北京xxx信息技术有限公司</t>
   </si>
   <si>
     <t>2019-01-31</t>
@@ -372,13 +375,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="177" formatCode="0.0000_ "/>
-    <numFmt numFmtId="178" formatCode="#,##0.00000000_);[Red]\(#,##0.00000000\)"/>
+    <numFmt numFmtId="177" formatCode="#,##0.00000000_);[Red]\(#,##0.00000000\)"/>
+    <numFmt numFmtId="178" formatCode="0.0000_ "/>
     <numFmt numFmtId="179" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
   </numFmts>
   <fonts count="25">
@@ -412,52 +415,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -471,10 +443,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -495,6 +476,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -503,7 +492,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -517,23 +535,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -541,15 +552,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -581,25 +584,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,157 +746,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -790,6 +793,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -805,11 +817,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -829,50 +856,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -887,6 +870,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -895,10 +898,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -907,133 +910,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1043,7 +1046,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1073,13 +1076,13 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -1097,7 +1100,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2413,8 +2416,8 @@
   <sheetPr/>
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -2512,13 +2515,13 @@
         <v>31</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="N2" s="17" t="s">
         <v>22</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2557,396 +2560,396 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B37" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" t="s">
         <v>70</v>
-      </c>
-      <c r="B38" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B39" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B40" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B41" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B42" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/zxkj-modules/zxkj-platform/src/main/resources/template/jinxiangqingdan2.xlsx
+++ b/zxkj-modules/zxkj-platform/src/main/resources/template/jinxiangqingdan2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="7590" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7860" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="示范样例" sheetId="3" state="hidden" r:id="rId1"/>
@@ -21,7 +21,29 @@
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="L2" authorId="0">
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+可不选，不选则默认为普票</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -48,11 +70,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="108">
   <si>
     <t>序号</t>
   </si>
   <si>
+    <t>发票类型</t>
+  </si>
+  <si>
     <t>发票代码</t>
   </si>
   <si>
@@ -93,6 +118,9 @@
   </si>
   <si>
     <t>认证日期</t>
+  </si>
+  <si>
+    <t>增值税普通发票</t>
   </si>
   <si>
     <t>5100152130</t>
@@ -375,14 +403,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="177" formatCode="#,##0.00000000_);[Red]\(#,##0.00000000\)"/>
-    <numFmt numFmtId="178" formatCode="0.0000_ "/>
-    <numFmt numFmtId="179" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    <numFmt numFmtId="177" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    <numFmt numFmtId="178" formatCode="#,##0.00000000_);[Red]\(#,##0.00000000\)"/>
+    <numFmt numFmtId="179" formatCode="0.0000_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -415,37 +443,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -459,19 +479,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -484,22 +496,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -520,29 +524,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -550,11 +532,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -584,6 +612,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -596,175 +672,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -795,6 +823,26 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -803,16 +851,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -842,21 +890,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -871,22 +904,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -898,10 +926,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -910,133 +938,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1046,7 +1074,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1076,22 +1104,22 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -1100,7 +1128,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1422,661 +1450,662 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="A6" sqref="A6:N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.25" customWidth="1"/>
-    <col min="2" max="2" width="12.625" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="7" width="12.75" customWidth="1"/>
-    <col min="8" max="8" width="13.375" style="18" customWidth="1"/>
-    <col min="9" max="9" width="13" style="18" customWidth="1"/>
-    <col min="10" max="10" width="34" style="18" customWidth="1"/>
-    <col min="11" max="11" width="27.5" customWidth="1"/>
-    <col min="12" max="12" width="12.75" customWidth="1"/>
-    <col min="13" max="13" width="17.5" customWidth="1"/>
-    <col min="257" max="257" width="5.25" customWidth="1"/>
-    <col min="258" max="258" width="12.625" customWidth="1"/>
-    <col min="259" max="259" width="10.5" customWidth="1"/>
-    <col min="260" max="263" width="12.75" customWidth="1"/>
-    <col min="264" max="264" width="13.375" customWidth="1"/>
-    <col min="265" max="265" width="13" customWidth="1"/>
-    <col min="266" max="266" width="34" customWidth="1"/>
-    <col min="267" max="267" width="27.5" customWidth="1"/>
-    <col min="268" max="268" width="12.75" customWidth="1"/>
-    <col min="269" max="269" width="17.5" customWidth="1"/>
-    <col min="513" max="513" width="5.25" customWidth="1"/>
-    <col min="514" max="514" width="12.625" customWidth="1"/>
-    <col min="515" max="515" width="10.5" customWidth="1"/>
-    <col min="516" max="519" width="12.75" customWidth="1"/>
-    <col min="520" max="520" width="13.375" customWidth="1"/>
-    <col min="521" max="521" width="13" customWidth="1"/>
-    <col min="522" max="522" width="34" customWidth="1"/>
-    <col min="523" max="523" width="27.5" customWidth="1"/>
-    <col min="524" max="524" width="12.75" customWidth="1"/>
-    <col min="525" max="525" width="17.5" customWidth="1"/>
-    <col min="769" max="769" width="5.25" customWidth="1"/>
-    <col min="770" max="770" width="12.625" customWidth="1"/>
-    <col min="771" max="771" width="10.5" customWidth="1"/>
-    <col min="772" max="775" width="12.75" customWidth="1"/>
-    <col min="776" max="776" width="13.375" customWidth="1"/>
-    <col min="777" max="777" width="13" customWidth="1"/>
-    <col min="778" max="778" width="34" customWidth="1"/>
-    <col min="779" max="779" width="27.5" customWidth="1"/>
-    <col min="780" max="780" width="12.75" customWidth="1"/>
-    <col min="781" max="781" width="17.5" customWidth="1"/>
-    <col min="1025" max="1025" width="5.25" customWidth="1"/>
-    <col min="1026" max="1026" width="12.625" customWidth="1"/>
-    <col min="1027" max="1027" width="10.5" customWidth="1"/>
-    <col min="1028" max="1031" width="12.75" customWidth="1"/>
-    <col min="1032" max="1032" width="13.375" customWidth="1"/>
-    <col min="1033" max="1033" width="13" customWidth="1"/>
-    <col min="1034" max="1034" width="34" customWidth="1"/>
-    <col min="1035" max="1035" width="27.5" customWidth="1"/>
-    <col min="1036" max="1036" width="12.75" customWidth="1"/>
-    <col min="1037" max="1037" width="17.5" customWidth="1"/>
-    <col min="1281" max="1281" width="5.25" customWidth="1"/>
-    <col min="1282" max="1282" width="12.625" customWidth="1"/>
-    <col min="1283" max="1283" width="10.5" customWidth="1"/>
-    <col min="1284" max="1287" width="12.75" customWidth="1"/>
-    <col min="1288" max="1288" width="13.375" customWidth="1"/>
-    <col min="1289" max="1289" width="13" customWidth="1"/>
-    <col min="1290" max="1290" width="34" customWidth="1"/>
-    <col min="1291" max="1291" width="27.5" customWidth="1"/>
-    <col min="1292" max="1292" width="12.75" customWidth="1"/>
-    <col min="1293" max="1293" width="17.5" customWidth="1"/>
-    <col min="1537" max="1537" width="5.25" customWidth="1"/>
-    <col min="1538" max="1538" width="12.625" customWidth="1"/>
-    <col min="1539" max="1539" width="10.5" customWidth="1"/>
-    <col min="1540" max="1543" width="12.75" customWidth="1"/>
-    <col min="1544" max="1544" width="13.375" customWidth="1"/>
-    <col min="1545" max="1545" width="13" customWidth="1"/>
-    <col min="1546" max="1546" width="34" customWidth="1"/>
-    <col min="1547" max="1547" width="27.5" customWidth="1"/>
-    <col min="1548" max="1548" width="12.75" customWidth="1"/>
-    <col min="1549" max="1549" width="17.5" customWidth="1"/>
-    <col min="1793" max="1793" width="5.25" customWidth="1"/>
-    <col min="1794" max="1794" width="12.625" customWidth="1"/>
-    <col min="1795" max="1795" width="10.5" customWidth="1"/>
-    <col min="1796" max="1799" width="12.75" customWidth="1"/>
-    <col min="1800" max="1800" width="13.375" customWidth="1"/>
-    <col min="1801" max="1801" width="13" customWidth="1"/>
-    <col min="1802" max="1802" width="34" customWidth="1"/>
-    <col min="1803" max="1803" width="27.5" customWidth="1"/>
-    <col min="1804" max="1804" width="12.75" customWidth="1"/>
-    <col min="1805" max="1805" width="17.5" customWidth="1"/>
-    <col min="2049" max="2049" width="5.25" customWidth="1"/>
-    <col min="2050" max="2050" width="12.625" customWidth="1"/>
-    <col min="2051" max="2051" width="10.5" customWidth="1"/>
-    <col min="2052" max="2055" width="12.75" customWidth="1"/>
-    <col min="2056" max="2056" width="13.375" customWidth="1"/>
-    <col min="2057" max="2057" width="13" customWidth="1"/>
-    <col min="2058" max="2058" width="34" customWidth="1"/>
-    <col min="2059" max="2059" width="27.5" customWidth="1"/>
-    <col min="2060" max="2060" width="12.75" customWidth="1"/>
-    <col min="2061" max="2061" width="17.5" customWidth="1"/>
-    <col min="2305" max="2305" width="5.25" customWidth="1"/>
-    <col min="2306" max="2306" width="12.625" customWidth="1"/>
-    <col min="2307" max="2307" width="10.5" customWidth="1"/>
-    <col min="2308" max="2311" width="12.75" customWidth="1"/>
-    <col min="2312" max="2312" width="13.375" customWidth="1"/>
-    <col min="2313" max="2313" width="13" customWidth="1"/>
-    <col min="2314" max="2314" width="34" customWidth="1"/>
-    <col min="2315" max="2315" width="27.5" customWidth="1"/>
-    <col min="2316" max="2316" width="12.75" customWidth="1"/>
-    <col min="2317" max="2317" width="17.5" customWidth="1"/>
-    <col min="2561" max="2561" width="5.25" customWidth="1"/>
-    <col min="2562" max="2562" width="12.625" customWidth="1"/>
-    <col min="2563" max="2563" width="10.5" customWidth="1"/>
-    <col min="2564" max="2567" width="12.75" customWidth="1"/>
-    <col min="2568" max="2568" width="13.375" customWidth="1"/>
-    <col min="2569" max="2569" width="13" customWidth="1"/>
-    <col min="2570" max="2570" width="34" customWidth="1"/>
-    <col min="2571" max="2571" width="27.5" customWidth="1"/>
-    <col min="2572" max="2572" width="12.75" customWidth="1"/>
-    <col min="2573" max="2573" width="17.5" customWidth="1"/>
-    <col min="2817" max="2817" width="5.25" customWidth="1"/>
-    <col min="2818" max="2818" width="12.625" customWidth="1"/>
-    <col min="2819" max="2819" width="10.5" customWidth="1"/>
-    <col min="2820" max="2823" width="12.75" customWidth="1"/>
-    <col min="2824" max="2824" width="13.375" customWidth="1"/>
-    <col min="2825" max="2825" width="13" customWidth="1"/>
-    <col min="2826" max="2826" width="34" customWidth="1"/>
-    <col min="2827" max="2827" width="27.5" customWidth="1"/>
-    <col min="2828" max="2828" width="12.75" customWidth="1"/>
-    <col min="2829" max="2829" width="17.5" customWidth="1"/>
-    <col min="3073" max="3073" width="5.25" customWidth="1"/>
-    <col min="3074" max="3074" width="12.625" customWidth="1"/>
-    <col min="3075" max="3075" width="10.5" customWidth="1"/>
-    <col min="3076" max="3079" width="12.75" customWidth="1"/>
-    <col min="3080" max="3080" width="13.375" customWidth="1"/>
-    <col min="3081" max="3081" width="13" customWidth="1"/>
-    <col min="3082" max="3082" width="34" customWidth="1"/>
-    <col min="3083" max="3083" width="27.5" customWidth="1"/>
-    <col min="3084" max="3084" width="12.75" customWidth="1"/>
-    <col min="3085" max="3085" width="17.5" customWidth="1"/>
-    <col min="3329" max="3329" width="5.25" customWidth="1"/>
-    <col min="3330" max="3330" width="12.625" customWidth="1"/>
-    <col min="3331" max="3331" width="10.5" customWidth="1"/>
-    <col min="3332" max="3335" width="12.75" customWidth="1"/>
-    <col min="3336" max="3336" width="13.375" customWidth="1"/>
-    <col min="3337" max="3337" width="13" customWidth="1"/>
-    <col min="3338" max="3338" width="34" customWidth="1"/>
-    <col min="3339" max="3339" width="27.5" customWidth="1"/>
-    <col min="3340" max="3340" width="12.75" customWidth="1"/>
-    <col min="3341" max="3341" width="17.5" customWidth="1"/>
-    <col min="3585" max="3585" width="5.25" customWidth="1"/>
-    <col min="3586" max="3586" width="12.625" customWidth="1"/>
-    <col min="3587" max="3587" width="10.5" customWidth="1"/>
-    <col min="3588" max="3591" width="12.75" customWidth="1"/>
-    <col min="3592" max="3592" width="13.375" customWidth="1"/>
-    <col min="3593" max="3593" width="13" customWidth="1"/>
-    <col min="3594" max="3594" width="34" customWidth="1"/>
-    <col min="3595" max="3595" width="27.5" customWidth="1"/>
-    <col min="3596" max="3596" width="12.75" customWidth="1"/>
-    <col min="3597" max="3597" width="17.5" customWidth="1"/>
-    <col min="3841" max="3841" width="5.25" customWidth="1"/>
-    <col min="3842" max="3842" width="12.625" customWidth="1"/>
-    <col min="3843" max="3843" width="10.5" customWidth="1"/>
-    <col min="3844" max="3847" width="12.75" customWidth="1"/>
-    <col min="3848" max="3848" width="13.375" customWidth="1"/>
-    <col min="3849" max="3849" width="13" customWidth="1"/>
-    <col min="3850" max="3850" width="34" customWidth="1"/>
-    <col min="3851" max="3851" width="27.5" customWidth="1"/>
-    <col min="3852" max="3852" width="12.75" customWidth="1"/>
-    <col min="3853" max="3853" width="17.5" customWidth="1"/>
-    <col min="4097" max="4097" width="5.25" customWidth="1"/>
-    <col min="4098" max="4098" width="12.625" customWidth="1"/>
-    <col min="4099" max="4099" width="10.5" customWidth="1"/>
-    <col min="4100" max="4103" width="12.75" customWidth="1"/>
-    <col min="4104" max="4104" width="13.375" customWidth="1"/>
-    <col min="4105" max="4105" width="13" customWidth="1"/>
-    <col min="4106" max="4106" width="34" customWidth="1"/>
-    <col min="4107" max="4107" width="27.5" customWidth="1"/>
-    <col min="4108" max="4108" width="12.75" customWidth="1"/>
-    <col min="4109" max="4109" width="17.5" customWidth="1"/>
-    <col min="4353" max="4353" width="5.25" customWidth="1"/>
-    <col min="4354" max="4354" width="12.625" customWidth="1"/>
-    <col min="4355" max="4355" width="10.5" customWidth="1"/>
-    <col min="4356" max="4359" width="12.75" customWidth="1"/>
-    <col min="4360" max="4360" width="13.375" customWidth="1"/>
-    <col min="4361" max="4361" width="13" customWidth="1"/>
-    <col min="4362" max="4362" width="34" customWidth="1"/>
-    <col min="4363" max="4363" width="27.5" customWidth="1"/>
-    <col min="4364" max="4364" width="12.75" customWidth="1"/>
-    <col min="4365" max="4365" width="17.5" customWidth="1"/>
-    <col min="4609" max="4609" width="5.25" customWidth="1"/>
-    <col min="4610" max="4610" width="12.625" customWidth="1"/>
-    <col min="4611" max="4611" width="10.5" customWidth="1"/>
-    <col min="4612" max="4615" width="12.75" customWidth="1"/>
-    <col min="4616" max="4616" width="13.375" customWidth="1"/>
-    <col min="4617" max="4617" width="13" customWidth="1"/>
-    <col min="4618" max="4618" width="34" customWidth="1"/>
-    <col min="4619" max="4619" width="27.5" customWidth="1"/>
-    <col min="4620" max="4620" width="12.75" customWidth="1"/>
-    <col min="4621" max="4621" width="17.5" customWidth="1"/>
-    <col min="4865" max="4865" width="5.25" customWidth="1"/>
-    <col min="4866" max="4866" width="12.625" customWidth="1"/>
-    <col min="4867" max="4867" width="10.5" customWidth="1"/>
-    <col min="4868" max="4871" width="12.75" customWidth="1"/>
-    <col min="4872" max="4872" width="13.375" customWidth="1"/>
-    <col min="4873" max="4873" width="13" customWidth="1"/>
-    <col min="4874" max="4874" width="34" customWidth="1"/>
-    <col min="4875" max="4875" width="27.5" customWidth="1"/>
-    <col min="4876" max="4876" width="12.75" customWidth="1"/>
-    <col min="4877" max="4877" width="17.5" customWidth="1"/>
-    <col min="5121" max="5121" width="5.25" customWidth="1"/>
-    <col min="5122" max="5122" width="12.625" customWidth="1"/>
-    <col min="5123" max="5123" width="10.5" customWidth="1"/>
-    <col min="5124" max="5127" width="12.75" customWidth="1"/>
-    <col min="5128" max="5128" width="13.375" customWidth="1"/>
-    <col min="5129" max="5129" width="13" customWidth="1"/>
-    <col min="5130" max="5130" width="34" customWidth="1"/>
-    <col min="5131" max="5131" width="27.5" customWidth="1"/>
-    <col min="5132" max="5132" width="12.75" customWidth="1"/>
-    <col min="5133" max="5133" width="17.5" customWidth="1"/>
-    <col min="5377" max="5377" width="5.25" customWidth="1"/>
-    <col min="5378" max="5378" width="12.625" customWidth="1"/>
-    <col min="5379" max="5379" width="10.5" customWidth="1"/>
-    <col min="5380" max="5383" width="12.75" customWidth="1"/>
-    <col min="5384" max="5384" width="13.375" customWidth="1"/>
-    <col min="5385" max="5385" width="13" customWidth="1"/>
-    <col min="5386" max="5386" width="34" customWidth="1"/>
-    <col min="5387" max="5387" width="27.5" customWidth="1"/>
-    <col min="5388" max="5388" width="12.75" customWidth="1"/>
-    <col min="5389" max="5389" width="17.5" customWidth="1"/>
-    <col min="5633" max="5633" width="5.25" customWidth="1"/>
-    <col min="5634" max="5634" width="12.625" customWidth="1"/>
-    <col min="5635" max="5635" width="10.5" customWidth="1"/>
-    <col min="5636" max="5639" width="12.75" customWidth="1"/>
-    <col min="5640" max="5640" width="13.375" customWidth="1"/>
-    <col min="5641" max="5641" width="13" customWidth="1"/>
-    <col min="5642" max="5642" width="34" customWidth="1"/>
-    <col min="5643" max="5643" width="27.5" customWidth="1"/>
-    <col min="5644" max="5644" width="12.75" customWidth="1"/>
-    <col min="5645" max="5645" width="17.5" customWidth="1"/>
-    <col min="5889" max="5889" width="5.25" customWidth="1"/>
-    <col min="5890" max="5890" width="12.625" customWidth="1"/>
-    <col min="5891" max="5891" width="10.5" customWidth="1"/>
-    <col min="5892" max="5895" width="12.75" customWidth="1"/>
-    <col min="5896" max="5896" width="13.375" customWidth="1"/>
-    <col min="5897" max="5897" width="13" customWidth="1"/>
-    <col min="5898" max="5898" width="34" customWidth="1"/>
-    <col min="5899" max="5899" width="27.5" customWidth="1"/>
-    <col min="5900" max="5900" width="12.75" customWidth="1"/>
-    <col min="5901" max="5901" width="17.5" customWidth="1"/>
-    <col min="6145" max="6145" width="5.25" customWidth="1"/>
-    <col min="6146" max="6146" width="12.625" customWidth="1"/>
-    <col min="6147" max="6147" width="10.5" customWidth="1"/>
-    <col min="6148" max="6151" width="12.75" customWidth="1"/>
-    <col min="6152" max="6152" width="13.375" customWidth="1"/>
-    <col min="6153" max="6153" width="13" customWidth="1"/>
-    <col min="6154" max="6154" width="34" customWidth="1"/>
-    <col min="6155" max="6155" width="27.5" customWidth="1"/>
-    <col min="6156" max="6156" width="12.75" customWidth="1"/>
-    <col min="6157" max="6157" width="17.5" customWidth="1"/>
-    <col min="6401" max="6401" width="5.25" customWidth="1"/>
-    <col min="6402" max="6402" width="12.625" customWidth="1"/>
-    <col min="6403" max="6403" width="10.5" customWidth="1"/>
-    <col min="6404" max="6407" width="12.75" customWidth="1"/>
-    <col min="6408" max="6408" width="13.375" customWidth="1"/>
-    <col min="6409" max="6409" width="13" customWidth="1"/>
-    <col min="6410" max="6410" width="34" customWidth="1"/>
-    <col min="6411" max="6411" width="27.5" customWidth="1"/>
-    <col min="6412" max="6412" width="12.75" customWidth="1"/>
-    <col min="6413" max="6413" width="17.5" customWidth="1"/>
-    <col min="6657" max="6657" width="5.25" customWidth="1"/>
-    <col min="6658" max="6658" width="12.625" customWidth="1"/>
-    <col min="6659" max="6659" width="10.5" customWidth="1"/>
-    <col min="6660" max="6663" width="12.75" customWidth="1"/>
-    <col min="6664" max="6664" width="13.375" customWidth="1"/>
-    <col min="6665" max="6665" width="13" customWidth="1"/>
-    <col min="6666" max="6666" width="34" customWidth="1"/>
-    <col min="6667" max="6667" width="27.5" customWidth="1"/>
-    <col min="6668" max="6668" width="12.75" customWidth="1"/>
-    <col min="6669" max="6669" width="17.5" customWidth="1"/>
-    <col min="6913" max="6913" width="5.25" customWidth="1"/>
-    <col min="6914" max="6914" width="12.625" customWidth="1"/>
-    <col min="6915" max="6915" width="10.5" customWidth="1"/>
-    <col min="6916" max="6919" width="12.75" customWidth="1"/>
-    <col min="6920" max="6920" width="13.375" customWidth="1"/>
-    <col min="6921" max="6921" width="13" customWidth="1"/>
-    <col min="6922" max="6922" width="34" customWidth="1"/>
-    <col min="6923" max="6923" width="27.5" customWidth="1"/>
-    <col min="6924" max="6924" width="12.75" customWidth="1"/>
-    <col min="6925" max="6925" width="17.5" customWidth="1"/>
-    <col min="7169" max="7169" width="5.25" customWidth="1"/>
-    <col min="7170" max="7170" width="12.625" customWidth="1"/>
-    <col min="7171" max="7171" width="10.5" customWidth="1"/>
-    <col min="7172" max="7175" width="12.75" customWidth="1"/>
-    <col min="7176" max="7176" width="13.375" customWidth="1"/>
-    <col min="7177" max="7177" width="13" customWidth="1"/>
-    <col min="7178" max="7178" width="34" customWidth="1"/>
-    <col min="7179" max="7179" width="27.5" customWidth="1"/>
-    <col min="7180" max="7180" width="12.75" customWidth="1"/>
-    <col min="7181" max="7181" width="17.5" customWidth="1"/>
-    <col min="7425" max="7425" width="5.25" customWidth="1"/>
-    <col min="7426" max="7426" width="12.625" customWidth="1"/>
-    <col min="7427" max="7427" width="10.5" customWidth="1"/>
-    <col min="7428" max="7431" width="12.75" customWidth="1"/>
-    <col min="7432" max="7432" width="13.375" customWidth="1"/>
-    <col min="7433" max="7433" width="13" customWidth="1"/>
-    <col min="7434" max="7434" width="34" customWidth="1"/>
-    <col min="7435" max="7435" width="27.5" customWidth="1"/>
-    <col min="7436" max="7436" width="12.75" customWidth="1"/>
-    <col min="7437" max="7437" width="17.5" customWidth="1"/>
-    <col min="7681" max="7681" width="5.25" customWidth="1"/>
-    <col min="7682" max="7682" width="12.625" customWidth="1"/>
-    <col min="7683" max="7683" width="10.5" customWidth="1"/>
-    <col min="7684" max="7687" width="12.75" customWidth="1"/>
-    <col min="7688" max="7688" width="13.375" customWidth="1"/>
-    <col min="7689" max="7689" width="13" customWidth="1"/>
-    <col min="7690" max="7690" width="34" customWidth="1"/>
-    <col min="7691" max="7691" width="27.5" customWidth="1"/>
-    <col min="7692" max="7692" width="12.75" customWidth="1"/>
-    <col min="7693" max="7693" width="17.5" customWidth="1"/>
-    <col min="7937" max="7937" width="5.25" customWidth="1"/>
-    <col min="7938" max="7938" width="12.625" customWidth="1"/>
-    <col min="7939" max="7939" width="10.5" customWidth="1"/>
-    <col min="7940" max="7943" width="12.75" customWidth="1"/>
-    <col min="7944" max="7944" width="13.375" customWidth="1"/>
-    <col min="7945" max="7945" width="13" customWidth="1"/>
-    <col min="7946" max="7946" width="34" customWidth="1"/>
-    <col min="7947" max="7947" width="27.5" customWidth="1"/>
-    <col min="7948" max="7948" width="12.75" customWidth="1"/>
-    <col min="7949" max="7949" width="17.5" customWidth="1"/>
-    <col min="8193" max="8193" width="5.25" customWidth="1"/>
-    <col min="8194" max="8194" width="12.625" customWidth="1"/>
-    <col min="8195" max="8195" width="10.5" customWidth="1"/>
-    <col min="8196" max="8199" width="12.75" customWidth="1"/>
-    <col min="8200" max="8200" width="13.375" customWidth="1"/>
-    <col min="8201" max="8201" width="13" customWidth="1"/>
-    <col min="8202" max="8202" width="34" customWidth="1"/>
-    <col min="8203" max="8203" width="27.5" customWidth="1"/>
-    <col min="8204" max="8204" width="12.75" customWidth="1"/>
-    <col min="8205" max="8205" width="17.5" customWidth="1"/>
-    <col min="8449" max="8449" width="5.25" customWidth="1"/>
-    <col min="8450" max="8450" width="12.625" customWidth="1"/>
-    <col min="8451" max="8451" width="10.5" customWidth="1"/>
-    <col min="8452" max="8455" width="12.75" customWidth="1"/>
-    <col min="8456" max="8456" width="13.375" customWidth="1"/>
-    <col min="8457" max="8457" width="13" customWidth="1"/>
-    <col min="8458" max="8458" width="34" customWidth="1"/>
-    <col min="8459" max="8459" width="27.5" customWidth="1"/>
-    <col min="8460" max="8460" width="12.75" customWidth="1"/>
-    <col min="8461" max="8461" width="17.5" customWidth="1"/>
-    <col min="8705" max="8705" width="5.25" customWidth="1"/>
-    <col min="8706" max="8706" width="12.625" customWidth="1"/>
-    <col min="8707" max="8707" width="10.5" customWidth="1"/>
-    <col min="8708" max="8711" width="12.75" customWidth="1"/>
-    <col min="8712" max="8712" width="13.375" customWidth="1"/>
-    <col min="8713" max="8713" width="13" customWidth="1"/>
-    <col min="8714" max="8714" width="34" customWidth="1"/>
-    <col min="8715" max="8715" width="27.5" customWidth="1"/>
-    <col min="8716" max="8716" width="12.75" customWidth="1"/>
-    <col min="8717" max="8717" width="17.5" customWidth="1"/>
-    <col min="8961" max="8961" width="5.25" customWidth="1"/>
-    <col min="8962" max="8962" width="12.625" customWidth="1"/>
-    <col min="8963" max="8963" width="10.5" customWidth="1"/>
-    <col min="8964" max="8967" width="12.75" customWidth="1"/>
-    <col min="8968" max="8968" width="13.375" customWidth="1"/>
-    <col min="8969" max="8969" width="13" customWidth="1"/>
-    <col min="8970" max="8970" width="34" customWidth="1"/>
-    <col min="8971" max="8971" width="27.5" customWidth="1"/>
-    <col min="8972" max="8972" width="12.75" customWidth="1"/>
-    <col min="8973" max="8973" width="17.5" customWidth="1"/>
-    <col min="9217" max="9217" width="5.25" customWidth="1"/>
-    <col min="9218" max="9218" width="12.625" customWidth="1"/>
-    <col min="9219" max="9219" width="10.5" customWidth="1"/>
-    <col min="9220" max="9223" width="12.75" customWidth="1"/>
-    <col min="9224" max="9224" width="13.375" customWidth="1"/>
-    <col min="9225" max="9225" width="13" customWidth="1"/>
-    <col min="9226" max="9226" width="34" customWidth="1"/>
-    <col min="9227" max="9227" width="27.5" customWidth="1"/>
-    <col min="9228" max="9228" width="12.75" customWidth="1"/>
-    <col min="9229" max="9229" width="17.5" customWidth="1"/>
-    <col min="9473" max="9473" width="5.25" customWidth="1"/>
-    <col min="9474" max="9474" width="12.625" customWidth="1"/>
-    <col min="9475" max="9475" width="10.5" customWidth="1"/>
-    <col min="9476" max="9479" width="12.75" customWidth="1"/>
-    <col min="9480" max="9480" width="13.375" customWidth="1"/>
-    <col min="9481" max="9481" width="13" customWidth="1"/>
-    <col min="9482" max="9482" width="34" customWidth="1"/>
-    <col min="9483" max="9483" width="27.5" customWidth="1"/>
-    <col min="9484" max="9484" width="12.75" customWidth="1"/>
-    <col min="9485" max="9485" width="17.5" customWidth="1"/>
-    <col min="9729" max="9729" width="5.25" customWidth="1"/>
-    <col min="9730" max="9730" width="12.625" customWidth="1"/>
-    <col min="9731" max="9731" width="10.5" customWidth="1"/>
-    <col min="9732" max="9735" width="12.75" customWidth="1"/>
-    <col min="9736" max="9736" width="13.375" customWidth="1"/>
-    <col min="9737" max="9737" width="13" customWidth="1"/>
-    <col min="9738" max="9738" width="34" customWidth="1"/>
-    <col min="9739" max="9739" width="27.5" customWidth="1"/>
-    <col min="9740" max="9740" width="12.75" customWidth="1"/>
-    <col min="9741" max="9741" width="17.5" customWidth="1"/>
-    <col min="9985" max="9985" width="5.25" customWidth="1"/>
-    <col min="9986" max="9986" width="12.625" customWidth="1"/>
-    <col min="9987" max="9987" width="10.5" customWidth="1"/>
-    <col min="9988" max="9991" width="12.75" customWidth="1"/>
-    <col min="9992" max="9992" width="13.375" customWidth="1"/>
-    <col min="9993" max="9993" width="13" customWidth="1"/>
-    <col min="9994" max="9994" width="34" customWidth="1"/>
-    <col min="9995" max="9995" width="27.5" customWidth="1"/>
-    <col min="9996" max="9996" width="12.75" customWidth="1"/>
-    <col min="9997" max="9997" width="17.5" customWidth="1"/>
-    <col min="10241" max="10241" width="5.25" customWidth="1"/>
-    <col min="10242" max="10242" width="12.625" customWidth="1"/>
-    <col min="10243" max="10243" width="10.5" customWidth="1"/>
-    <col min="10244" max="10247" width="12.75" customWidth="1"/>
-    <col min="10248" max="10248" width="13.375" customWidth="1"/>
-    <col min="10249" max="10249" width="13" customWidth="1"/>
-    <col min="10250" max="10250" width="34" customWidth="1"/>
-    <col min="10251" max="10251" width="27.5" customWidth="1"/>
-    <col min="10252" max="10252" width="12.75" customWidth="1"/>
-    <col min="10253" max="10253" width="17.5" customWidth="1"/>
-    <col min="10497" max="10497" width="5.25" customWidth="1"/>
-    <col min="10498" max="10498" width="12.625" customWidth="1"/>
-    <col min="10499" max="10499" width="10.5" customWidth="1"/>
-    <col min="10500" max="10503" width="12.75" customWidth="1"/>
-    <col min="10504" max="10504" width="13.375" customWidth="1"/>
-    <col min="10505" max="10505" width="13" customWidth="1"/>
-    <col min="10506" max="10506" width="34" customWidth="1"/>
-    <col min="10507" max="10507" width="27.5" customWidth="1"/>
-    <col min="10508" max="10508" width="12.75" customWidth="1"/>
-    <col min="10509" max="10509" width="17.5" customWidth="1"/>
-    <col min="10753" max="10753" width="5.25" customWidth="1"/>
-    <col min="10754" max="10754" width="12.625" customWidth="1"/>
-    <col min="10755" max="10755" width="10.5" customWidth="1"/>
-    <col min="10756" max="10759" width="12.75" customWidth="1"/>
-    <col min="10760" max="10760" width="13.375" customWidth="1"/>
-    <col min="10761" max="10761" width="13" customWidth="1"/>
-    <col min="10762" max="10762" width="34" customWidth="1"/>
-    <col min="10763" max="10763" width="27.5" customWidth="1"/>
-    <col min="10764" max="10764" width="12.75" customWidth="1"/>
-    <col min="10765" max="10765" width="17.5" customWidth="1"/>
-    <col min="11009" max="11009" width="5.25" customWidth="1"/>
-    <col min="11010" max="11010" width="12.625" customWidth="1"/>
-    <col min="11011" max="11011" width="10.5" customWidth="1"/>
-    <col min="11012" max="11015" width="12.75" customWidth="1"/>
-    <col min="11016" max="11016" width="13.375" customWidth="1"/>
-    <col min="11017" max="11017" width="13" customWidth="1"/>
-    <col min="11018" max="11018" width="34" customWidth="1"/>
-    <col min="11019" max="11019" width="27.5" customWidth="1"/>
-    <col min="11020" max="11020" width="12.75" customWidth="1"/>
-    <col min="11021" max="11021" width="17.5" customWidth="1"/>
-    <col min="11265" max="11265" width="5.25" customWidth="1"/>
-    <col min="11266" max="11266" width="12.625" customWidth="1"/>
-    <col min="11267" max="11267" width="10.5" customWidth="1"/>
-    <col min="11268" max="11271" width="12.75" customWidth="1"/>
-    <col min="11272" max="11272" width="13.375" customWidth="1"/>
-    <col min="11273" max="11273" width="13" customWidth="1"/>
-    <col min="11274" max="11274" width="34" customWidth="1"/>
-    <col min="11275" max="11275" width="27.5" customWidth="1"/>
-    <col min="11276" max="11276" width="12.75" customWidth="1"/>
-    <col min="11277" max="11277" width="17.5" customWidth="1"/>
-    <col min="11521" max="11521" width="5.25" customWidth="1"/>
-    <col min="11522" max="11522" width="12.625" customWidth="1"/>
-    <col min="11523" max="11523" width="10.5" customWidth="1"/>
-    <col min="11524" max="11527" width="12.75" customWidth="1"/>
-    <col min="11528" max="11528" width="13.375" customWidth="1"/>
-    <col min="11529" max="11529" width="13" customWidth="1"/>
-    <col min="11530" max="11530" width="34" customWidth="1"/>
-    <col min="11531" max="11531" width="27.5" customWidth="1"/>
-    <col min="11532" max="11532" width="12.75" customWidth="1"/>
-    <col min="11533" max="11533" width="17.5" customWidth="1"/>
-    <col min="11777" max="11777" width="5.25" customWidth="1"/>
-    <col min="11778" max="11778" width="12.625" customWidth="1"/>
-    <col min="11779" max="11779" width="10.5" customWidth="1"/>
-    <col min="11780" max="11783" width="12.75" customWidth="1"/>
-    <col min="11784" max="11784" width="13.375" customWidth="1"/>
-    <col min="11785" max="11785" width="13" customWidth="1"/>
-    <col min="11786" max="11786" width="34" customWidth="1"/>
-    <col min="11787" max="11787" width="27.5" customWidth="1"/>
-    <col min="11788" max="11788" width="12.75" customWidth="1"/>
-    <col min="11789" max="11789" width="17.5" customWidth="1"/>
-    <col min="12033" max="12033" width="5.25" customWidth="1"/>
-    <col min="12034" max="12034" width="12.625" customWidth="1"/>
-    <col min="12035" max="12035" width="10.5" customWidth="1"/>
-    <col min="12036" max="12039" width="12.75" customWidth="1"/>
-    <col min="12040" max="12040" width="13.375" customWidth="1"/>
-    <col min="12041" max="12041" width="13" customWidth="1"/>
-    <col min="12042" max="12042" width="34" customWidth="1"/>
-    <col min="12043" max="12043" width="27.5" customWidth="1"/>
-    <col min="12044" max="12044" width="12.75" customWidth="1"/>
-    <col min="12045" max="12045" width="17.5" customWidth="1"/>
-    <col min="12289" max="12289" width="5.25" customWidth="1"/>
-    <col min="12290" max="12290" width="12.625" customWidth="1"/>
-    <col min="12291" max="12291" width="10.5" customWidth="1"/>
-    <col min="12292" max="12295" width="12.75" customWidth="1"/>
-    <col min="12296" max="12296" width="13.375" customWidth="1"/>
-    <col min="12297" max="12297" width="13" customWidth="1"/>
-    <col min="12298" max="12298" width="34" customWidth="1"/>
-    <col min="12299" max="12299" width="27.5" customWidth="1"/>
-    <col min="12300" max="12300" width="12.75" customWidth="1"/>
-    <col min="12301" max="12301" width="17.5" customWidth="1"/>
-    <col min="12545" max="12545" width="5.25" customWidth="1"/>
-    <col min="12546" max="12546" width="12.625" customWidth="1"/>
-    <col min="12547" max="12547" width="10.5" customWidth="1"/>
-    <col min="12548" max="12551" width="12.75" customWidth="1"/>
-    <col min="12552" max="12552" width="13.375" customWidth="1"/>
-    <col min="12553" max="12553" width="13" customWidth="1"/>
-    <col min="12554" max="12554" width="34" customWidth="1"/>
-    <col min="12555" max="12555" width="27.5" customWidth="1"/>
-    <col min="12556" max="12556" width="12.75" customWidth="1"/>
-    <col min="12557" max="12557" width="17.5" customWidth="1"/>
-    <col min="12801" max="12801" width="5.25" customWidth="1"/>
-    <col min="12802" max="12802" width="12.625" customWidth="1"/>
-    <col min="12803" max="12803" width="10.5" customWidth="1"/>
-    <col min="12804" max="12807" width="12.75" customWidth="1"/>
-    <col min="12808" max="12808" width="13.375" customWidth="1"/>
-    <col min="12809" max="12809" width="13" customWidth="1"/>
-    <col min="12810" max="12810" width="34" customWidth="1"/>
-    <col min="12811" max="12811" width="27.5" customWidth="1"/>
-    <col min="12812" max="12812" width="12.75" customWidth="1"/>
-    <col min="12813" max="12813" width="17.5" customWidth="1"/>
-    <col min="13057" max="13057" width="5.25" customWidth="1"/>
-    <col min="13058" max="13058" width="12.625" customWidth="1"/>
-    <col min="13059" max="13059" width="10.5" customWidth="1"/>
-    <col min="13060" max="13063" width="12.75" customWidth="1"/>
-    <col min="13064" max="13064" width="13.375" customWidth="1"/>
-    <col min="13065" max="13065" width="13" customWidth="1"/>
-    <col min="13066" max="13066" width="34" customWidth="1"/>
-    <col min="13067" max="13067" width="27.5" customWidth="1"/>
-    <col min="13068" max="13068" width="12.75" customWidth="1"/>
-    <col min="13069" max="13069" width="17.5" customWidth="1"/>
-    <col min="13313" max="13313" width="5.25" customWidth="1"/>
-    <col min="13314" max="13314" width="12.625" customWidth="1"/>
-    <col min="13315" max="13315" width="10.5" customWidth="1"/>
-    <col min="13316" max="13319" width="12.75" customWidth="1"/>
-    <col min="13320" max="13320" width="13.375" customWidth="1"/>
-    <col min="13321" max="13321" width="13" customWidth="1"/>
-    <col min="13322" max="13322" width="34" customWidth="1"/>
-    <col min="13323" max="13323" width="27.5" customWidth="1"/>
-    <col min="13324" max="13324" width="12.75" customWidth="1"/>
-    <col min="13325" max="13325" width="17.5" customWidth="1"/>
-    <col min="13569" max="13569" width="5.25" customWidth="1"/>
-    <col min="13570" max="13570" width="12.625" customWidth="1"/>
-    <col min="13571" max="13571" width="10.5" customWidth="1"/>
-    <col min="13572" max="13575" width="12.75" customWidth="1"/>
-    <col min="13576" max="13576" width="13.375" customWidth="1"/>
-    <col min="13577" max="13577" width="13" customWidth="1"/>
-    <col min="13578" max="13578" width="34" customWidth="1"/>
-    <col min="13579" max="13579" width="27.5" customWidth="1"/>
-    <col min="13580" max="13580" width="12.75" customWidth="1"/>
-    <col min="13581" max="13581" width="17.5" customWidth="1"/>
-    <col min="13825" max="13825" width="5.25" customWidth="1"/>
-    <col min="13826" max="13826" width="12.625" customWidth="1"/>
-    <col min="13827" max="13827" width="10.5" customWidth="1"/>
-    <col min="13828" max="13831" width="12.75" customWidth="1"/>
-    <col min="13832" max="13832" width="13.375" customWidth="1"/>
-    <col min="13833" max="13833" width="13" customWidth="1"/>
-    <col min="13834" max="13834" width="34" customWidth="1"/>
-    <col min="13835" max="13835" width="27.5" customWidth="1"/>
-    <col min="13836" max="13836" width="12.75" customWidth="1"/>
-    <col min="13837" max="13837" width="17.5" customWidth="1"/>
-    <col min="14081" max="14081" width="5.25" customWidth="1"/>
-    <col min="14082" max="14082" width="12.625" customWidth="1"/>
-    <col min="14083" max="14083" width="10.5" customWidth="1"/>
-    <col min="14084" max="14087" width="12.75" customWidth="1"/>
-    <col min="14088" max="14088" width="13.375" customWidth="1"/>
-    <col min="14089" max="14089" width="13" customWidth="1"/>
-    <col min="14090" max="14090" width="34" customWidth="1"/>
-    <col min="14091" max="14091" width="27.5" customWidth="1"/>
-    <col min="14092" max="14092" width="12.75" customWidth="1"/>
-    <col min="14093" max="14093" width="17.5" customWidth="1"/>
-    <col min="14337" max="14337" width="5.25" customWidth="1"/>
-    <col min="14338" max="14338" width="12.625" customWidth="1"/>
-    <col min="14339" max="14339" width="10.5" customWidth="1"/>
-    <col min="14340" max="14343" width="12.75" customWidth="1"/>
-    <col min="14344" max="14344" width="13.375" customWidth="1"/>
-    <col min="14345" max="14345" width="13" customWidth="1"/>
-    <col min="14346" max="14346" width="34" customWidth="1"/>
-    <col min="14347" max="14347" width="27.5" customWidth="1"/>
-    <col min="14348" max="14348" width="12.75" customWidth="1"/>
-    <col min="14349" max="14349" width="17.5" customWidth="1"/>
-    <col min="14593" max="14593" width="5.25" customWidth="1"/>
-    <col min="14594" max="14594" width="12.625" customWidth="1"/>
-    <col min="14595" max="14595" width="10.5" customWidth="1"/>
-    <col min="14596" max="14599" width="12.75" customWidth="1"/>
-    <col min="14600" max="14600" width="13.375" customWidth="1"/>
-    <col min="14601" max="14601" width="13" customWidth="1"/>
-    <col min="14602" max="14602" width="34" customWidth="1"/>
-    <col min="14603" max="14603" width="27.5" customWidth="1"/>
-    <col min="14604" max="14604" width="12.75" customWidth="1"/>
-    <col min="14605" max="14605" width="17.5" customWidth="1"/>
-    <col min="14849" max="14849" width="5.25" customWidth="1"/>
-    <col min="14850" max="14850" width="12.625" customWidth="1"/>
-    <col min="14851" max="14851" width="10.5" customWidth="1"/>
-    <col min="14852" max="14855" width="12.75" customWidth="1"/>
-    <col min="14856" max="14856" width="13.375" customWidth="1"/>
-    <col min="14857" max="14857" width="13" customWidth="1"/>
-    <col min="14858" max="14858" width="34" customWidth="1"/>
-    <col min="14859" max="14859" width="27.5" customWidth="1"/>
-    <col min="14860" max="14860" width="12.75" customWidth="1"/>
-    <col min="14861" max="14861" width="17.5" customWidth="1"/>
-    <col min="15105" max="15105" width="5.25" customWidth="1"/>
-    <col min="15106" max="15106" width="12.625" customWidth="1"/>
-    <col min="15107" max="15107" width="10.5" customWidth="1"/>
-    <col min="15108" max="15111" width="12.75" customWidth="1"/>
-    <col min="15112" max="15112" width="13.375" customWidth="1"/>
-    <col min="15113" max="15113" width="13" customWidth="1"/>
-    <col min="15114" max="15114" width="34" customWidth="1"/>
-    <col min="15115" max="15115" width="27.5" customWidth="1"/>
-    <col min="15116" max="15116" width="12.75" customWidth="1"/>
-    <col min="15117" max="15117" width="17.5" customWidth="1"/>
-    <col min="15361" max="15361" width="5.25" customWidth="1"/>
-    <col min="15362" max="15362" width="12.625" customWidth="1"/>
-    <col min="15363" max="15363" width="10.5" customWidth="1"/>
-    <col min="15364" max="15367" width="12.75" customWidth="1"/>
-    <col min="15368" max="15368" width="13.375" customWidth="1"/>
-    <col min="15369" max="15369" width="13" customWidth="1"/>
-    <col min="15370" max="15370" width="34" customWidth="1"/>
-    <col min="15371" max="15371" width="27.5" customWidth="1"/>
-    <col min="15372" max="15372" width="12.75" customWidth="1"/>
-    <col min="15373" max="15373" width="17.5" customWidth="1"/>
-    <col min="15617" max="15617" width="5.25" customWidth="1"/>
-    <col min="15618" max="15618" width="12.625" customWidth="1"/>
-    <col min="15619" max="15619" width="10.5" customWidth="1"/>
-    <col min="15620" max="15623" width="12.75" customWidth="1"/>
-    <col min="15624" max="15624" width="13.375" customWidth="1"/>
-    <col min="15625" max="15625" width="13" customWidth="1"/>
-    <col min="15626" max="15626" width="34" customWidth="1"/>
-    <col min="15627" max="15627" width="27.5" customWidth="1"/>
-    <col min="15628" max="15628" width="12.75" customWidth="1"/>
-    <col min="15629" max="15629" width="17.5" customWidth="1"/>
-    <col min="15873" max="15873" width="5.25" customWidth="1"/>
-    <col min="15874" max="15874" width="12.625" customWidth="1"/>
-    <col min="15875" max="15875" width="10.5" customWidth="1"/>
-    <col min="15876" max="15879" width="12.75" customWidth="1"/>
-    <col min="15880" max="15880" width="13.375" customWidth="1"/>
-    <col min="15881" max="15881" width="13" customWidth="1"/>
-    <col min="15882" max="15882" width="34" customWidth="1"/>
-    <col min="15883" max="15883" width="27.5" customWidth="1"/>
-    <col min="15884" max="15884" width="12.75" customWidth="1"/>
-    <col min="15885" max="15885" width="17.5" customWidth="1"/>
-    <col min="16129" max="16129" width="5.25" customWidth="1"/>
-    <col min="16130" max="16130" width="12.625" customWidth="1"/>
-    <col min="16131" max="16131" width="10.5" customWidth="1"/>
-    <col min="16132" max="16135" width="12.75" customWidth="1"/>
-    <col min="16136" max="16136" width="13.375" customWidth="1"/>
-    <col min="16137" max="16137" width="13" customWidth="1"/>
-    <col min="16138" max="16138" width="34" customWidth="1"/>
-    <col min="16139" max="16139" width="27.5" customWidth="1"/>
-    <col min="16140" max="16140" width="12.75" customWidth="1"/>
-    <col min="16141" max="16141" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="15.375" customWidth="1"/>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="10.5" customWidth="1"/>
+    <col min="5" max="8" width="12.75" customWidth="1"/>
+    <col min="9" max="9" width="13.375" style="18" customWidth="1"/>
+    <col min="10" max="10" width="13" style="18" customWidth="1"/>
+    <col min="11" max="11" width="34" style="18" customWidth="1"/>
+    <col min="12" max="12" width="27.5" customWidth="1"/>
+    <col min="13" max="13" width="12.75" customWidth="1"/>
+    <col min="14" max="14" width="17.5" customWidth="1"/>
+    <col min="258" max="258" width="5.25" customWidth="1"/>
+    <col min="259" max="259" width="12.625" customWidth="1"/>
+    <col min="260" max="260" width="10.5" customWidth="1"/>
+    <col min="261" max="264" width="12.75" customWidth="1"/>
+    <col min="265" max="265" width="13.375" customWidth="1"/>
+    <col min="266" max="266" width="13" customWidth="1"/>
+    <col min="267" max="267" width="34" customWidth="1"/>
+    <col min="268" max="268" width="27.5" customWidth="1"/>
+    <col min="269" max="269" width="12.75" customWidth="1"/>
+    <col min="270" max="270" width="17.5" customWidth="1"/>
+    <col min="514" max="514" width="5.25" customWidth="1"/>
+    <col min="515" max="515" width="12.625" customWidth="1"/>
+    <col min="516" max="516" width="10.5" customWidth="1"/>
+    <col min="517" max="520" width="12.75" customWidth="1"/>
+    <col min="521" max="521" width="13.375" customWidth="1"/>
+    <col min="522" max="522" width="13" customWidth="1"/>
+    <col min="523" max="523" width="34" customWidth="1"/>
+    <col min="524" max="524" width="27.5" customWidth="1"/>
+    <col min="525" max="525" width="12.75" customWidth="1"/>
+    <col min="526" max="526" width="17.5" customWidth="1"/>
+    <col min="770" max="770" width="5.25" customWidth="1"/>
+    <col min="771" max="771" width="12.625" customWidth="1"/>
+    <col min="772" max="772" width="10.5" customWidth="1"/>
+    <col min="773" max="776" width="12.75" customWidth="1"/>
+    <col min="777" max="777" width="13.375" customWidth="1"/>
+    <col min="778" max="778" width="13" customWidth="1"/>
+    <col min="779" max="779" width="34" customWidth="1"/>
+    <col min="780" max="780" width="27.5" customWidth="1"/>
+    <col min="781" max="781" width="12.75" customWidth="1"/>
+    <col min="782" max="782" width="17.5" customWidth="1"/>
+    <col min="1026" max="1026" width="5.25" customWidth="1"/>
+    <col min="1027" max="1027" width="12.625" customWidth="1"/>
+    <col min="1028" max="1028" width="10.5" customWidth="1"/>
+    <col min="1029" max="1032" width="12.75" customWidth="1"/>
+    <col min="1033" max="1033" width="13.375" customWidth="1"/>
+    <col min="1034" max="1034" width="13" customWidth="1"/>
+    <col min="1035" max="1035" width="34" customWidth="1"/>
+    <col min="1036" max="1036" width="27.5" customWidth="1"/>
+    <col min="1037" max="1037" width="12.75" customWidth="1"/>
+    <col min="1038" max="1038" width="17.5" customWidth="1"/>
+    <col min="1282" max="1282" width="5.25" customWidth="1"/>
+    <col min="1283" max="1283" width="12.625" customWidth="1"/>
+    <col min="1284" max="1284" width="10.5" customWidth="1"/>
+    <col min="1285" max="1288" width="12.75" customWidth="1"/>
+    <col min="1289" max="1289" width="13.375" customWidth="1"/>
+    <col min="1290" max="1290" width="13" customWidth="1"/>
+    <col min="1291" max="1291" width="34" customWidth="1"/>
+    <col min="1292" max="1292" width="27.5" customWidth="1"/>
+    <col min="1293" max="1293" width="12.75" customWidth="1"/>
+    <col min="1294" max="1294" width="17.5" customWidth="1"/>
+    <col min="1538" max="1538" width="5.25" customWidth="1"/>
+    <col min="1539" max="1539" width="12.625" customWidth="1"/>
+    <col min="1540" max="1540" width="10.5" customWidth="1"/>
+    <col min="1541" max="1544" width="12.75" customWidth="1"/>
+    <col min="1545" max="1545" width="13.375" customWidth="1"/>
+    <col min="1546" max="1546" width="13" customWidth="1"/>
+    <col min="1547" max="1547" width="34" customWidth="1"/>
+    <col min="1548" max="1548" width="27.5" customWidth="1"/>
+    <col min="1549" max="1549" width="12.75" customWidth="1"/>
+    <col min="1550" max="1550" width="17.5" customWidth="1"/>
+    <col min="1794" max="1794" width="5.25" customWidth="1"/>
+    <col min="1795" max="1795" width="12.625" customWidth="1"/>
+    <col min="1796" max="1796" width="10.5" customWidth="1"/>
+    <col min="1797" max="1800" width="12.75" customWidth="1"/>
+    <col min="1801" max="1801" width="13.375" customWidth="1"/>
+    <col min="1802" max="1802" width="13" customWidth="1"/>
+    <col min="1803" max="1803" width="34" customWidth="1"/>
+    <col min="1804" max="1804" width="27.5" customWidth="1"/>
+    <col min="1805" max="1805" width="12.75" customWidth="1"/>
+    <col min="1806" max="1806" width="17.5" customWidth="1"/>
+    <col min="2050" max="2050" width="5.25" customWidth="1"/>
+    <col min="2051" max="2051" width="12.625" customWidth="1"/>
+    <col min="2052" max="2052" width="10.5" customWidth="1"/>
+    <col min="2053" max="2056" width="12.75" customWidth="1"/>
+    <col min="2057" max="2057" width="13.375" customWidth="1"/>
+    <col min="2058" max="2058" width="13" customWidth="1"/>
+    <col min="2059" max="2059" width="34" customWidth="1"/>
+    <col min="2060" max="2060" width="27.5" customWidth="1"/>
+    <col min="2061" max="2061" width="12.75" customWidth="1"/>
+    <col min="2062" max="2062" width="17.5" customWidth="1"/>
+    <col min="2306" max="2306" width="5.25" customWidth="1"/>
+    <col min="2307" max="2307" width="12.625" customWidth="1"/>
+    <col min="2308" max="2308" width="10.5" customWidth="1"/>
+    <col min="2309" max="2312" width="12.75" customWidth="1"/>
+    <col min="2313" max="2313" width="13.375" customWidth="1"/>
+    <col min="2314" max="2314" width="13" customWidth="1"/>
+    <col min="2315" max="2315" width="34" customWidth="1"/>
+    <col min="2316" max="2316" width="27.5" customWidth="1"/>
+    <col min="2317" max="2317" width="12.75" customWidth="1"/>
+    <col min="2318" max="2318" width="17.5" customWidth="1"/>
+    <col min="2562" max="2562" width="5.25" customWidth="1"/>
+    <col min="2563" max="2563" width="12.625" customWidth="1"/>
+    <col min="2564" max="2564" width="10.5" customWidth="1"/>
+    <col min="2565" max="2568" width="12.75" customWidth="1"/>
+    <col min="2569" max="2569" width="13.375" customWidth="1"/>
+    <col min="2570" max="2570" width="13" customWidth="1"/>
+    <col min="2571" max="2571" width="34" customWidth="1"/>
+    <col min="2572" max="2572" width="27.5" customWidth="1"/>
+    <col min="2573" max="2573" width="12.75" customWidth="1"/>
+    <col min="2574" max="2574" width="17.5" customWidth="1"/>
+    <col min="2818" max="2818" width="5.25" customWidth="1"/>
+    <col min="2819" max="2819" width="12.625" customWidth="1"/>
+    <col min="2820" max="2820" width="10.5" customWidth="1"/>
+    <col min="2821" max="2824" width="12.75" customWidth="1"/>
+    <col min="2825" max="2825" width="13.375" customWidth="1"/>
+    <col min="2826" max="2826" width="13" customWidth="1"/>
+    <col min="2827" max="2827" width="34" customWidth="1"/>
+    <col min="2828" max="2828" width="27.5" customWidth="1"/>
+    <col min="2829" max="2829" width="12.75" customWidth="1"/>
+    <col min="2830" max="2830" width="17.5" customWidth="1"/>
+    <col min="3074" max="3074" width="5.25" customWidth="1"/>
+    <col min="3075" max="3075" width="12.625" customWidth="1"/>
+    <col min="3076" max="3076" width="10.5" customWidth="1"/>
+    <col min="3077" max="3080" width="12.75" customWidth="1"/>
+    <col min="3081" max="3081" width="13.375" customWidth="1"/>
+    <col min="3082" max="3082" width="13" customWidth="1"/>
+    <col min="3083" max="3083" width="34" customWidth="1"/>
+    <col min="3084" max="3084" width="27.5" customWidth="1"/>
+    <col min="3085" max="3085" width="12.75" customWidth="1"/>
+    <col min="3086" max="3086" width="17.5" customWidth="1"/>
+    <col min="3330" max="3330" width="5.25" customWidth="1"/>
+    <col min="3331" max="3331" width="12.625" customWidth="1"/>
+    <col min="3332" max="3332" width="10.5" customWidth="1"/>
+    <col min="3333" max="3336" width="12.75" customWidth="1"/>
+    <col min="3337" max="3337" width="13.375" customWidth="1"/>
+    <col min="3338" max="3338" width="13" customWidth="1"/>
+    <col min="3339" max="3339" width="34" customWidth="1"/>
+    <col min="3340" max="3340" width="27.5" customWidth="1"/>
+    <col min="3341" max="3341" width="12.75" customWidth="1"/>
+    <col min="3342" max="3342" width="17.5" customWidth="1"/>
+    <col min="3586" max="3586" width="5.25" customWidth="1"/>
+    <col min="3587" max="3587" width="12.625" customWidth="1"/>
+    <col min="3588" max="3588" width="10.5" customWidth="1"/>
+    <col min="3589" max="3592" width="12.75" customWidth="1"/>
+    <col min="3593" max="3593" width="13.375" customWidth="1"/>
+    <col min="3594" max="3594" width="13" customWidth="1"/>
+    <col min="3595" max="3595" width="34" customWidth="1"/>
+    <col min="3596" max="3596" width="27.5" customWidth="1"/>
+    <col min="3597" max="3597" width="12.75" customWidth="1"/>
+    <col min="3598" max="3598" width="17.5" customWidth="1"/>
+    <col min="3842" max="3842" width="5.25" customWidth="1"/>
+    <col min="3843" max="3843" width="12.625" customWidth="1"/>
+    <col min="3844" max="3844" width="10.5" customWidth="1"/>
+    <col min="3845" max="3848" width="12.75" customWidth="1"/>
+    <col min="3849" max="3849" width="13.375" customWidth="1"/>
+    <col min="3850" max="3850" width="13" customWidth="1"/>
+    <col min="3851" max="3851" width="34" customWidth="1"/>
+    <col min="3852" max="3852" width="27.5" customWidth="1"/>
+    <col min="3853" max="3853" width="12.75" customWidth="1"/>
+    <col min="3854" max="3854" width="17.5" customWidth="1"/>
+    <col min="4098" max="4098" width="5.25" customWidth="1"/>
+    <col min="4099" max="4099" width="12.625" customWidth="1"/>
+    <col min="4100" max="4100" width="10.5" customWidth="1"/>
+    <col min="4101" max="4104" width="12.75" customWidth="1"/>
+    <col min="4105" max="4105" width="13.375" customWidth="1"/>
+    <col min="4106" max="4106" width="13" customWidth="1"/>
+    <col min="4107" max="4107" width="34" customWidth="1"/>
+    <col min="4108" max="4108" width="27.5" customWidth="1"/>
+    <col min="4109" max="4109" width="12.75" customWidth="1"/>
+    <col min="4110" max="4110" width="17.5" customWidth="1"/>
+    <col min="4354" max="4354" width="5.25" customWidth="1"/>
+    <col min="4355" max="4355" width="12.625" customWidth="1"/>
+    <col min="4356" max="4356" width="10.5" customWidth="1"/>
+    <col min="4357" max="4360" width="12.75" customWidth="1"/>
+    <col min="4361" max="4361" width="13.375" customWidth="1"/>
+    <col min="4362" max="4362" width="13" customWidth="1"/>
+    <col min="4363" max="4363" width="34" customWidth="1"/>
+    <col min="4364" max="4364" width="27.5" customWidth="1"/>
+    <col min="4365" max="4365" width="12.75" customWidth="1"/>
+    <col min="4366" max="4366" width="17.5" customWidth="1"/>
+    <col min="4610" max="4610" width="5.25" customWidth="1"/>
+    <col min="4611" max="4611" width="12.625" customWidth="1"/>
+    <col min="4612" max="4612" width="10.5" customWidth="1"/>
+    <col min="4613" max="4616" width="12.75" customWidth="1"/>
+    <col min="4617" max="4617" width="13.375" customWidth="1"/>
+    <col min="4618" max="4618" width="13" customWidth="1"/>
+    <col min="4619" max="4619" width="34" customWidth="1"/>
+    <col min="4620" max="4620" width="27.5" customWidth="1"/>
+    <col min="4621" max="4621" width="12.75" customWidth="1"/>
+    <col min="4622" max="4622" width="17.5" customWidth="1"/>
+    <col min="4866" max="4866" width="5.25" customWidth="1"/>
+    <col min="4867" max="4867" width="12.625" customWidth="1"/>
+    <col min="4868" max="4868" width="10.5" customWidth="1"/>
+    <col min="4869" max="4872" width="12.75" customWidth="1"/>
+    <col min="4873" max="4873" width="13.375" customWidth="1"/>
+    <col min="4874" max="4874" width="13" customWidth="1"/>
+    <col min="4875" max="4875" width="34" customWidth="1"/>
+    <col min="4876" max="4876" width="27.5" customWidth="1"/>
+    <col min="4877" max="4877" width="12.75" customWidth="1"/>
+    <col min="4878" max="4878" width="17.5" customWidth="1"/>
+    <col min="5122" max="5122" width="5.25" customWidth="1"/>
+    <col min="5123" max="5123" width="12.625" customWidth="1"/>
+    <col min="5124" max="5124" width="10.5" customWidth="1"/>
+    <col min="5125" max="5128" width="12.75" customWidth="1"/>
+    <col min="5129" max="5129" width="13.375" customWidth="1"/>
+    <col min="5130" max="5130" width="13" customWidth="1"/>
+    <col min="5131" max="5131" width="34" customWidth="1"/>
+    <col min="5132" max="5132" width="27.5" customWidth="1"/>
+    <col min="5133" max="5133" width="12.75" customWidth="1"/>
+    <col min="5134" max="5134" width="17.5" customWidth="1"/>
+    <col min="5378" max="5378" width="5.25" customWidth="1"/>
+    <col min="5379" max="5379" width="12.625" customWidth="1"/>
+    <col min="5380" max="5380" width="10.5" customWidth="1"/>
+    <col min="5381" max="5384" width="12.75" customWidth="1"/>
+    <col min="5385" max="5385" width="13.375" customWidth="1"/>
+    <col min="5386" max="5386" width="13" customWidth="1"/>
+    <col min="5387" max="5387" width="34" customWidth="1"/>
+    <col min="5388" max="5388" width="27.5" customWidth="1"/>
+    <col min="5389" max="5389" width="12.75" customWidth="1"/>
+    <col min="5390" max="5390" width="17.5" customWidth="1"/>
+    <col min="5634" max="5634" width="5.25" customWidth="1"/>
+    <col min="5635" max="5635" width="12.625" customWidth="1"/>
+    <col min="5636" max="5636" width="10.5" customWidth="1"/>
+    <col min="5637" max="5640" width="12.75" customWidth="1"/>
+    <col min="5641" max="5641" width="13.375" customWidth="1"/>
+    <col min="5642" max="5642" width="13" customWidth="1"/>
+    <col min="5643" max="5643" width="34" customWidth="1"/>
+    <col min="5644" max="5644" width="27.5" customWidth="1"/>
+    <col min="5645" max="5645" width="12.75" customWidth="1"/>
+    <col min="5646" max="5646" width="17.5" customWidth="1"/>
+    <col min="5890" max="5890" width="5.25" customWidth="1"/>
+    <col min="5891" max="5891" width="12.625" customWidth="1"/>
+    <col min="5892" max="5892" width="10.5" customWidth="1"/>
+    <col min="5893" max="5896" width="12.75" customWidth="1"/>
+    <col min="5897" max="5897" width="13.375" customWidth="1"/>
+    <col min="5898" max="5898" width="13" customWidth="1"/>
+    <col min="5899" max="5899" width="34" customWidth="1"/>
+    <col min="5900" max="5900" width="27.5" customWidth="1"/>
+    <col min="5901" max="5901" width="12.75" customWidth="1"/>
+    <col min="5902" max="5902" width="17.5" customWidth="1"/>
+    <col min="6146" max="6146" width="5.25" customWidth="1"/>
+    <col min="6147" max="6147" width="12.625" customWidth="1"/>
+    <col min="6148" max="6148" width="10.5" customWidth="1"/>
+    <col min="6149" max="6152" width="12.75" customWidth="1"/>
+    <col min="6153" max="6153" width="13.375" customWidth="1"/>
+    <col min="6154" max="6154" width="13" customWidth="1"/>
+    <col min="6155" max="6155" width="34" customWidth="1"/>
+    <col min="6156" max="6156" width="27.5" customWidth="1"/>
+    <col min="6157" max="6157" width="12.75" customWidth="1"/>
+    <col min="6158" max="6158" width="17.5" customWidth="1"/>
+    <col min="6402" max="6402" width="5.25" customWidth="1"/>
+    <col min="6403" max="6403" width="12.625" customWidth="1"/>
+    <col min="6404" max="6404" width="10.5" customWidth="1"/>
+    <col min="6405" max="6408" width="12.75" customWidth="1"/>
+    <col min="6409" max="6409" width="13.375" customWidth="1"/>
+    <col min="6410" max="6410" width="13" customWidth="1"/>
+    <col min="6411" max="6411" width="34" customWidth="1"/>
+    <col min="6412" max="6412" width="27.5" customWidth="1"/>
+    <col min="6413" max="6413" width="12.75" customWidth="1"/>
+    <col min="6414" max="6414" width="17.5" customWidth="1"/>
+    <col min="6658" max="6658" width="5.25" customWidth="1"/>
+    <col min="6659" max="6659" width="12.625" customWidth="1"/>
+    <col min="6660" max="6660" width="10.5" customWidth="1"/>
+    <col min="6661" max="6664" width="12.75" customWidth="1"/>
+    <col min="6665" max="6665" width="13.375" customWidth="1"/>
+    <col min="6666" max="6666" width="13" customWidth="1"/>
+    <col min="6667" max="6667" width="34" customWidth="1"/>
+    <col min="6668" max="6668" width="27.5" customWidth="1"/>
+    <col min="6669" max="6669" width="12.75" customWidth="1"/>
+    <col min="6670" max="6670" width="17.5" customWidth="1"/>
+    <col min="6914" max="6914" width="5.25" customWidth="1"/>
+    <col min="6915" max="6915" width="12.625" customWidth="1"/>
+    <col min="6916" max="6916" width="10.5" customWidth="1"/>
+    <col min="6917" max="6920" width="12.75" customWidth="1"/>
+    <col min="6921" max="6921" width="13.375" customWidth="1"/>
+    <col min="6922" max="6922" width="13" customWidth="1"/>
+    <col min="6923" max="6923" width="34" customWidth="1"/>
+    <col min="6924" max="6924" width="27.5" customWidth="1"/>
+    <col min="6925" max="6925" width="12.75" customWidth="1"/>
+    <col min="6926" max="6926" width="17.5" customWidth="1"/>
+    <col min="7170" max="7170" width="5.25" customWidth="1"/>
+    <col min="7171" max="7171" width="12.625" customWidth="1"/>
+    <col min="7172" max="7172" width="10.5" customWidth="1"/>
+    <col min="7173" max="7176" width="12.75" customWidth="1"/>
+    <col min="7177" max="7177" width="13.375" customWidth="1"/>
+    <col min="7178" max="7178" width="13" customWidth="1"/>
+    <col min="7179" max="7179" width="34" customWidth="1"/>
+    <col min="7180" max="7180" width="27.5" customWidth="1"/>
+    <col min="7181" max="7181" width="12.75" customWidth="1"/>
+    <col min="7182" max="7182" width="17.5" customWidth="1"/>
+    <col min="7426" max="7426" width="5.25" customWidth="1"/>
+    <col min="7427" max="7427" width="12.625" customWidth="1"/>
+    <col min="7428" max="7428" width="10.5" customWidth="1"/>
+    <col min="7429" max="7432" width="12.75" customWidth="1"/>
+    <col min="7433" max="7433" width="13.375" customWidth="1"/>
+    <col min="7434" max="7434" width="13" customWidth="1"/>
+    <col min="7435" max="7435" width="34" customWidth="1"/>
+    <col min="7436" max="7436" width="27.5" customWidth="1"/>
+    <col min="7437" max="7437" width="12.75" customWidth="1"/>
+    <col min="7438" max="7438" width="17.5" customWidth="1"/>
+    <col min="7682" max="7682" width="5.25" customWidth="1"/>
+    <col min="7683" max="7683" width="12.625" customWidth="1"/>
+    <col min="7684" max="7684" width="10.5" customWidth="1"/>
+    <col min="7685" max="7688" width="12.75" customWidth="1"/>
+    <col min="7689" max="7689" width="13.375" customWidth="1"/>
+    <col min="7690" max="7690" width="13" customWidth="1"/>
+    <col min="7691" max="7691" width="34" customWidth="1"/>
+    <col min="7692" max="7692" width="27.5" customWidth="1"/>
+    <col min="7693" max="7693" width="12.75" customWidth="1"/>
+    <col min="7694" max="7694" width="17.5" customWidth="1"/>
+    <col min="7938" max="7938" width="5.25" customWidth="1"/>
+    <col min="7939" max="7939" width="12.625" customWidth="1"/>
+    <col min="7940" max="7940" width="10.5" customWidth="1"/>
+    <col min="7941" max="7944" width="12.75" customWidth="1"/>
+    <col min="7945" max="7945" width="13.375" customWidth="1"/>
+    <col min="7946" max="7946" width="13" customWidth="1"/>
+    <col min="7947" max="7947" width="34" customWidth="1"/>
+    <col min="7948" max="7948" width="27.5" customWidth="1"/>
+    <col min="7949" max="7949" width="12.75" customWidth="1"/>
+    <col min="7950" max="7950" width="17.5" customWidth="1"/>
+    <col min="8194" max="8194" width="5.25" customWidth="1"/>
+    <col min="8195" max="8195" width="12.625" customWidth="1"/>
+    <col min="8196" max="8196" width="10.5" customWidth="1"/>
+    <col min="8197" max="8200" width="12.75" customWidth="1"/>
+    <col min="8201" max="8201" width="13.375" customWidth="1"/>
+    <col min="8202" max="8202" width="13" customWidth="1"/>
+    <col min="8203" max="8203" width="34" customWidth="1"/>
+    <col min="8204" max="8204" width="27.5" customWidth="1"/>
+    <col min="8205" max="8205" width="12.75" customWidth="1"/>
+    <col min="8206" max="8206" width="17.5" customWidth="1"/>
+    <col min="8450" max="8450" width="5.25" customWidth="1"/>
+    <col min="8451" max="8451" width="12.625" customWidth="1"/>
+    <col min="8452" max="8452" width="10.5" customWidth="1"/>
+    <col min="8453" max="8456" width="12.75" customWidth="1"/>
+    <col min="8457" max="8457" width="13.375" customWidth="1"/>
+    <col min="8458" max="8458" width="13" customWidth="1"/>
+    <col min="8459" max="8459" width="34" customWidth="1"/>
+    <col min="8460" max="8460" width="27.5" customWidth="1"/>
+    <col min="8461" max="8461" width="12.75" customWidth="1"/>
+    <col min="8462" max="8462" width="17.5" customWidth="1"/>
+    <col min="8706" max="8706" width="5.25" customWidth="1"/>
+    <col min="8707" max="8707" width="12.625" customWidth="1"/>
+    <col min="8708" max="8708" width="10.5" customWidth="1"/>
+    <col min="8709" max="8712" width="12.75" customWidth="1"/>
+    <col min="8713" max="8713" width="13.375" customWidth="1"/>
+    <col min="8714" max="8714" width="13" customWidth="1"/>
+    <col min="8715" max="8715" width="34" customWidth="1"/>
+    <col min="8716" max="8716" width="27.5" customWidth="1"/>
+    <col min="8717" max="8717" width="12.75" customWidth="1"/>
+    <col min="8718" max="8718" width="17.5" customWidth="1"/>
+    <col min="8962" max="8962" width="5.25" customWidth="1"/>
+    <col min="8963" max="8963" width="12.625" customWidth="1"/>
+    <col min="8964" max="8964" width="10.5" customWidth="1"/>
+    <col min="8965" max="8968" width="12.75" customWidth="1"/>
+    <col min="8969" max="8969" width="13.375" customWidth="1"/>
+    <col min="8970" max="8970" width="13" customWidth="1"/>
+    <col min="8971" max="8971" width="34" customWidth="1"/>
+    <col min="8972" max="8972" width="27.5" customWidth="1"/>
+    <col min="8973" max="8973" width="12.75" customWidth="1"/>
+    <col min="8974" max="8974" width="17.5" customWidth="1"/>
+    <col min="9218" max="9218" width="5.25" customWidth="1"/>
+    <col min="9219" max="9219" width="12.625" customWidth="1"/>
+    <col min="9220" max="9220" width="10.5" customWidth="1"/>
+    <col min="9221" max="9224" width="12.75" customWidth="1"/>
+    <col min="9225" max="9225" width="13.375" customWidth="1"/>
+    <col min="9226" max="9226" width="13" customWidth="1"/>
+    <col min="9227" max="9227" width="34" customWidth="1"/>
+    <col min="9228" max="9228" width="27.5" customWidth="1"/>
+    <col min="9229" max="9229" width="12.75" customWidth="1"/>
+    <col min="9230" max="9230" width="17.5" customWidth="1"/>
+    <col min="9474" max="9474" width="5.25" customWidth="1"/>
+    <col min="9475" max="9475" width="12.625" customWidth="1"/>
+    <col min="9476" max="9476" width="10.5" customWidth="1"/>
+    <col min="9477" max="9480" width="12.75" customWidth="1"/>
+    <col min="9481" max="9481" width="13.375" customWidth="1"/>
+    <col min="9482" max="9482" width="13" customWidth="1"/>
+    <col min="9483" max="9483" width="34" customWidth="1"/>
+    <col min="9484" max="9484" width="27.5" customWidth="1"/>
+    <col min="9485" max="9485" width="12.75" customWidth="1"/>
+    <col min="9486" max="9486" width="17.5" customWidth="1"/>
+    <col min="9730" max="9730" width="5.25" customWidth="1"/>
+    <col min="9731" max="9731" width="12.625" customWidth="1"/>
+    <col min="9732" max="9732" width="10.5" customWidth="1"/>
+    <col min="9733" max="9736" width="12.75" customWidth="1"/>
+    <col min="9737" max="9737" width="13.375" customWidth="1"/>
+    <col min="9738" max="9738" width="13" customWidth="1"/>
+    <col min="9739" max="9739" width="34" customWidth="1"/>
+    <col min="9740" max="9740" width="27.5" customWidth="1"/>
+    <col min="9741" max="9741" width="12.75" customWidth="1"/>
+    <col min="9742" max="9742" width="17.5" customWidth="1"/>
+    <col min="9986" max="9986" width="5.25" customWidth="1"/>
+    <col min="9987" max="9987" width="12.625" customWidth="1"/>
+    <col min="9988" max="9988" width="10.5" customWidth="1"/>
+    <col min="9989" max="9992" width="12.75" customWidth="1"/>
+    <col min="9993" max="9993" width="13.375" customWidth="1"/>
+    <col min="9994" max="9994" width="13" customWidth="1"/>
+    <col min="9995" max="9995" width="34" customWidth="1"/>
+    <col min="9996" max="9996" width="27.5" customWidth="1"/>
+    <col min="9997" max="9997" width="12.75" customWidth="1"/>
+    <col min="9998" max="9998" width="17.5" customWidth="1"/>
+    <col min="10242" max="10242" width="5.25" customWidth="1"/>
+    <col min="10243" max="10243" width="12.625" customWidth="1"/>
+    <col min="10244" max="10244" width="10.5" customWidth="1"/>
+    <col min="10245" max="10248" width="12.75" customWidth="1"/>
+    <col min="10249" max="10249" width="13.375" customWidth="1"/>
+    <col min="10250" max="10250" width="13" customWidth="1"/>
+    <col min="10251" max="10251" width="34" customWidth="1"/>
+    <col min="10252" max="10252" width="27.5" customWidth="1"/>
+    <col min="10253" max="10253" width="12.75" customWidth="1"/>
+    <col min="10254" max="10254" width="17.5" customWidth="1"/>
+    <col min="10498" max="10498" width="5.25" customWidth="1"/>
+    <col min="10499" max="10499" width="12.625" customWidth="1"/>
+    <col min="10500" max="10500" width="10.5" customWidth="1"/>
+    <col min="10501" max="10504" width="12.75" customWidth="1"/>
+    <col min="10505" max="10505" width="13.375" customWidth="1"/>
+    <col min="10506" max="10506" width="13" customWidth="1"/>
+    <col min="10507" max="10507" width="34" customWidth="1"/>
+    <col min="10508" max="10508" width="27.5" customWidth="1"/>
+    <col min="10509" max="10509" width="12.75" customWidth="1"/>
+    <col min="10510" max="10510" width="17.5" customWidth="1"/>
+    <col min="10754" max="10754" width="5.25" customWidth="1"/>
+    <col min="10755" max="10755" width="12.625" customWidth="1"/>
+    <col min="10756" max="10756" width="10.5" customWidth="1"/>
+    <col min="10757" max="10760" width="12.75" customWidth="1"/>
+    <col min="10761" max="10761" width="13.375" customWidth="1"/>
+    <col min="10762" max="10762" width="13" customWidth="1"/>
+    <col min="10763" max="10763" width="34" customWidth="1"/>
+    <col min="10764" max="10764" width="27.5" customWidth="1"/>
+    <col min="10765" max="10765" width="12.75" customWidth="1"/>
+    <col min="10766" max="10766" width="17.5" customWidth="1"/>
+    <col min="11010" max="11010" width="5.25" customWidth="1"/>
+    <col min="11011" max="11011" width="12.625" customWidth="1"/>
+    <col min="11012" max="11012" width="10.5" customWidth="1"/>
+    <col min="11013" max="11016" width="12.75" customWidth="1"/>
+    <col min="11017" max="11017" width="13.375" customWidth="1"/>
+    <col min="11018" max="11018" width="13" customWidth="1"/>
+    <col min="11019" max="11019" width="34" customWidth="1"/>
+    <col min="11020" max="11020" width="27.5" customWidth="1"/>
+    <col min="11021" max="11021" width="12.75" customWidth="1"/>
+    <col min="11022" max="11022" width="17.5" customWidth="1"/>
+    <col min="11266" max="11266" width="5.25" customWidth="1"/>
+    <col min="11267" max="11267" width="12.625" customWidth="1"/>
+    <col min="11268" max="11268" width="10.5" customWidth="1"/>
+    <col min="11269" max="11272" width="12.75" customWidth="1"/>
+    <col min="11273" max="11273" width="13.375" customWidth="1"/>
+    <col min="11274" max="11274" width="13" customWidth="1"/>
+    <col min="11275" max="11275" width="34" customWidth="1"/>
+    <col min="11276" max="11276" width="27.5" customWidth="1"/>
+    <col min="11277" max="11277" width="12.75" customWidth="1"/>
+    <col min="11278" max="11278" width="17.5" customWidth="1"/>
+    <col min="11522" max="11522" width="5.25" customWidth="1"/>
+    <col min="11523" max="11523" width="12.625" customWidth="1"/>
+    <col min="11524" max="11524" width="10.5" customWidth="1"/>
+    <col min="11525" max="11528" width="12.75" customWidth="1"/>
+    <col min="11529" max="11529" width="13.375" customWidth="1"/>
+    <col min="11530" max="11530" width="13" customWidth="1"/>
+    <col min="11531" max="11531" width="34" customWidth="1"/>
+    <col min="11532" max="11532" width="27.5" customWidth="1"/>
+    <col min="11533" max="11533" width="12.75" customWidth="1"/>
+    <col min="11534" max="11534" width="17.5" customWidth="1"/>
+    <col min="11778" max="11778" width="5.25" customWidth="1"/>
+    <col min="11779" max="11779" width="12.625" customWidth="1"/>
+    <col min="11780" max="11780" width="10.5" customWidth="1"/>
+    <col min="11781" max="11784" width="12.75" customWidth="1"/>
+    <col min="11785" max="11785" width="13.375" customWidth="1"/>
+    <col min="11786" max="11786" width="13" customWidth="1"/>
+    <col min="11787" max="11787" width="34" customWidth="1"/>
+    <col min="11788" max="11788" width="27.5" customWidth="1"/>
+    <col min="11789" max="11789" width="12.75" customWidth="1"/>
+    <col min="11790" max="11790" width="17.5" customWidth="1"/>
+    <col min="12034" max="12034" width="5.25" customWidth="1"/>
+    <col min="12035" max="12035" width="12.625" customWidth="1"/>
+    <col min="12036" max="12036" width="10.5" customWidth="1"/>
+    <col min="12037" max="12040" width="12.75" customWidth="1"/>
+    <col min="12041" max="12041" width="13.375" customWidth="1"/>
+    <col min="12042" max="12042" width="13" customWidth="1"/>
+    <col min="12043" max="12043" width="34" customWidth="1"/>
+    <col min="12044" max="12044" width="27.5" customWidth="1"/>
+    <col min="12045" max="12045" width="12.75" customWidth="1"/>
+    <col min="12046" max="12046" width="17.5" customWidth="1"/>
+    <col min="12290" max="12290" width="5.25" customWidth="1"/>
+    <col min="12291" max="12291" width="12.625" customWidth="1"/>
+    <col min="12292" max="12292" width="10.5" customWidth="1"/>
+    <col min="12293" max="12296" width="12.75" customWidth="1"/>
+    <col min="12297" max="12297" width="13.375" customWidth="1"/>
+    <col min="12298" max="12298" width="13" customWidth="1"/>
+    <col min="12299" max="12299" width="34" customWidth="1"/>
+    <col min="12300" max="12300" width="27.5" customWidth="1"/>
+    <col min="12301" max="12301" width="12.75" customWidth="1"/>
+    <col min="12302" max="12302" width="17.5" customWidth="1"/>
+    <col min="12546" max="12546" width="5.25" customWidth="1"/>
+    <col min="12547" max="12547" width="12.625" customWidth="1"/>
+    <col min="12548" max="12548" width="10.5" customWidth="1"/>
+    <col min="12549" max="12552" width="12.75" customWidth="1"/>
+    <col min="12553" max="12553" width="13.375" customWidth="1"/>
+    <col min="12554" max="12554" width="13" customWidth="1"/>
+    <col min="12555" max="12555" width="34" customWidth="1"/>
+    <col min="12556" max="12556" width="27.5" customWidth="1"/>
+    <col min="12557" max="12557" width="12.75" customWidth="1"/>
+    <col min="12558" max="12558" width="17.5" customWidth="1"/>
+    <col min="12802" max="12802" width="5.25" customWidth="1"/>
+    <col min="12803" max="12803" width="12.625" customWidth="1"/>
+    <col min="12804" max="12804" width="10.5" customWidth="1"/>
+    <col min="12805" max="12808" width="12.75" customWidth="1"/>
+    <col min="12809" max="12809" width="13.375" customWidth="1"/>
+    <col min="12810" max="12810" width="13" customWidth="1"/>
+    <col min="12811" max="12811" width="34" customWidth="1"/>
+    <col min="12812" max="12812" width="27.5" customWidth="1"/>
+    <col min="12813" max="12813" width="12.75" customWidth="1"/>
+    <col min="12814" max="12814" width="17.5" customWidth="1"/>
+    <col min="13058" max="13058" width="5.25" customWidth="1"/>
+    <col min="13059" max="13059" width="12.625" customWidth="1"/>
+    <col min="13060" max="13060" width="10.5" customWidth="1"/>
+    <col min="13061" max="13064" width="12.75" customWidth="1"/>
+    <col min="13065" max="13065" width="13.375" customWidth="1"/>
+    <col min="13066" max="13066" width="13" customWidth="1"/>
+    <col min="13067" max="13067" width="34" customWidth="1"/>
+    <col min="13068" max="13068" width="27.5" customWidth="1"/>
+    <col min="13069" max="13069" width="12.75" customWidth="1"/>
+    <col min="13070" max="13070" width="17.5" customWidth="1"/>
+    <col min="13314" max="13314" width="5.25" customWidth="1"/>
+    <col min="13315" max="13315" width="12.625" customWidth="1"/>
+    <col min="13316" max="13316" width="10.5" customWidth="1"/>
+    <col min="13317" max="13320" width="12.75" customWidth="1"/>
+    <col min="13321" max="13321" width="13.375" customWidth="1"/>
+    <col min="13322" max="13322" width="13" customWidth="1"/>
+    <col min="13323" max="13323" width="34" customWidth="1"/>
+    <col min="13324" max="13324" width="27.5" customWidth="1"/>
+    <col min="13325" max="13325" width="12.75" customWidth="1"/>
+    <col min="13326" max="13326" width="17.5" customWidth="1"/>
+    <col min="13570" max="13570" width="5.25" customWidth="1"/>
+    <col min="13571" max="13571" width="12.625" customWidth="1"/>
+    <col min="13572" max="13572" width="10.5" customWidth="1"/>
+    <col min="13573" max="13576" width="12.75" customWidth="1"/>
+    <col min="13577" max="13577" width="13.375" customWidth="1"/>
+    <col min="13578" max="13578" width="13" customWidth="1"/>
+    <col min="13579" max="13579" width="34" customWidth="1"/>
+    <col min="13580" max="13580" width="27.5" customWidth="1"/>
+    <col min="13581" max="13581" width="12.75" customWidth="1"/>
+    <col min="13582" max="13582" width="17.5" customWidth="1"/>
+    <col min="13826" max="13826" width="5.25" customWidth="1"/>
+    <col min="13827" max="13827" width="12.625" customWidth="1"/>
+    <col min="13828" max="13828" width="10.5" customWidth="1"/>
+    <col min="13829" max="13832" width="12.75" customWidth="1"/>
+    <col min="13833" max="13833" width="13.375" customWidth="1"/>
+    <col min="13834" max="13834" width="13" customWidth="1"/>
+    <col min="13835" max="13835" width="34" customWidth="1"/>
+    <col min="13836" max="13836" width="27.5" customWidth="1"/>
+    <col min="13837" max="13837" width="12.75" customWidth="1"/>
+    <col min="13838" max="13838" width="17.5" customWidth="1"/>
+    <col min="14082" max="14082" width="5.25" customWidth="1"/>
+    <col min="14083" max="14083" width="12.625" customWidth="1"/>
+    <col min="14084" max="14084" width="10.5" customWidth="1"/>
+    <col min="14085" max="14088" width="12.75" customWidth="1"/>
+    <col min="14089" max="14089" width="13.375" customWidth="1"/>
+    <col min="14090" max="14090" width="13" customWidth="1"/>
+    <col min="14091" max="14091" width="34" customWidth="1"/>
+    <col min="14092" max="14092" width="27.5" customWidth="1"/>
+    <col min="14093" max="14093" width="12.75" customWidth="1"/>
+    <col min="14094" max="14094" width="17.5" customWidth="1"/>
+    <col min="14338" max="14338" width="5.25" customWidth="1"/>
+    <col min="14339" max="14339" width="12.625" customWidth="1"/>
+    <col min="14340" max="14340" width="10.5" customWidth="1"/>
+    <col min="14341" max="14344" width="12.75" customWidth="1"/>
+    <col min="14345" max="14345" width="13.375" customWidth="1"/>
+    <col min="14346" max="14346" width="13" customWidth="1"/>
+    <col min="14347" max="14347" width="34" customWidth="1"/>
+    <col min="14348" max="14348" width="27.5" customWidth="1"/>
+    <col min="14349" max="14349" width="12.75" customWidth="1"/>
+    <col min="14350" max="14350" width="17.5" customWidth="1"/>
+    <col min="14594" max="14594" width="5.25" customWidth="1"/>
+    <col min="14595" max="14595" width="12.625" customWidth="1"/>
+    <col min="14596" max="14596" width="10.5" customWidth="1"/>
+    <col min="14597" max="14600" width="12.75" customWidth="1"/>
+    <col min="14601" max="14601" width="13.375" customWidth="1"/>
+    <col min="14602" max="14602" width="13" customWidth="1"/>
+    <col min="14603" max="14603" width="34" customWidth="1"/>
+    <col min="14604" max="14604" width="27.5" customWidth="1"/>
+    <col min="14605" max="14605" width="12.75" customWidth="1"/>
+    <col min="14606" max="14606" width="17.5" customWidth="1"/>
+    <col min="14850" max="14850" width="5.25" customWidth="1"/>
+    <col min="14851" max="14851" width="12.625" customWidth="1"/>
+    <col min="14852" max="14852" width="10.5" customWidth="1"/>
+    <col min="14853" max="14856" width="12.75" customWidth="1"/>
+    <col min="14857" max="14857" width="13.375" customWidth="1"/>
+    <col min="14858" max="14858" width="13" customWidth="1"/>
+    <col min="14859" max="14859" width="34" customWidth="1"/>
+    <col min="14860" max="14860" width="27.5" customWidth="1"/>
+    <col min="14861" max="14861" width="12.75" customWidth="1"/>
+    <col min="14862" max="14862" width="17.5" customWidth="1"/>
+    <col min="15106" max="15106" width="5.25" customWidth="1"/>
+    <col min="15107" max="15107" width="12.625" customWidth="1"/>
+    <col min="15108" max="15108" width="10.5" customWidth="1"/>
+    <col min="15109" max="15112" width="12.75" customWidth="1"/>
+    <col min="15113" max="15113" width="13.375" customWidth="1"/>
+    <col min="15114" max="15114" width="13" customWidth="1"/>
+    <col min="15115" max="15115" width="34" customWidth="1"/>
+    <col min="15116" max="15116" width="27.5" customWidth="1"/>
+    <col min="15117" max="15117" width="12.75" customWidth="1"/>
+    <col min="15118" max="15118" width="17.5" customWidth="1"/>
+    <col min="15362" max="15362" width="5.25" customWidth="1"/>
+    <col min="15363" max="15363" width="12.625" customWidth="1"/>
+    <col min="15364" max="15364" width="10.5" customWidth="1"/>
+    <col min="15365" max="15368" width="12.75" customWidth="1"/>
+    <col min="15369" max="15369" width="13.375" customWidth="1"/>
+    <col min="15370" max="15370" width="13" customWidth="1"/>
+    <col min="15371" max="15371" width="34" customWidth="1"/>
+    <col min="15372" max="15372" width="27.5" customWidth="1"/>
+    <col min="15373" max="15373" width="12.75" customWidth="1"/>
+    <col min="15374" max="15374" width="17.5" customWidth="1"/>
+    <col min="15618" max="15618" width="5.25" customWidth="1"/>
+    <col min="15619" max="15619" width="12.625" customWidth="1"/>
+    <col min="15620" max="15620" width="10.5" customWidth="1"/>
+    <col min="15621" max="15624" width="12.75" customWidth="1"/>
+    <col min="15625" max="15625" width="13.375" customWidth="1"/>
+    <col min="15626" max="15626" width="13" customWidth="1"/>
+    <col min="15627" max="15627" width="34" customWidth="1"/>
+    <col min="15628" max="15628" width="27.5" customWidth="1"/>
+    <col min="15629" max="15629" width="12.75" customWidth="1"/>
+    <col min="15630" max="15630" width="17.5" customWidth="1"/>
+    <col min="15874" max="15874" width="5.25" customWidth="1"/>
+    <col min="15875" max="15875" width="12.625" customWidth="1"/>
+    <col min="15876" max="15876" width="10.5" customWidth="1"/>
+    <col min="15877" max="15880" width="12.75" customWidth="1"/>
+    <col min="15881" max="15881" width="13.375" customWidth="1"/>
+    <col min="15882" max="15882" width="13" customWidth="1"/>
+    <col min="15883" max="15883" width="34" customWidth="1"/>
+    <col min="15884" max="15884" width="27.5" customWidth="1"/>
+    <col min="15885" max="15885" width="12.75" customWidth="1"/>
+    <col min="15886" max="15886" width="17.5" customWidth="1"/>
+    <col min="16130" max="16130" width="5.25" customWidth="1"/>
+    <col min="16131" max="16131" width="12.625" customWidth="1"/>
+    <col min="16132" max="16132" width="10.5" customWidth="1"/>
+    <col min="16133" max="16136" width="12.75" customWidth="1"/>
+    <col min="16137" max="16137" width="13.375" customWidth="1"/>
+    <col min="16138" max="16138" width="13" customWidth="1"/>
+    <col min="16139" max="16139" width="34" customWidth="1"/>
+    <col min="16140" max="16140" width="27.5" customWidth="1"/>
+    <col min="16141" max="16141" width="12.75" customWidth="1"/>
+    <col min="16142" max="16142" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
@@ -2088,7 +2117,7 @@
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="7" t="s">
@@ -2100,174 +2129,186 @@
       <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>15</v>
+      <c r="B2" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="10">
+        <v>17</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="10">
         <v>42667</v>
       </c>
-      <c r="E2" s="11">
+      <c r="F2" s="11">
         <v>201610</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>17</v>
-      </c>
       <c r="G2" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="21">
+        <v>20</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="21">
         <v>1</v>
       </c>
-      <c r="J2" s="16">
+      <c r="K2" s="16">
         <v>15533.98</v>
       </c>
-      <c r="K2" s="16">
+      <c r="L2" s="16">
         <v>466.02</v>
       </c>
-      <c r="L2" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="17" t="s">
-        <v>21</v>
+      <c r="M2" s="16" t="s">
+        <v>22</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" s="9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="O2" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="10">
+        <v>42585</v>
+      </c>
+      <c r="F3" s="11">
+        <v>201610</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="21">
+        <v>1</v>
+      </c>
+      <c r="K3" s="16">
+        <v>87692.31</v>
+      </c>
+      <c r="L3" s="16">
+        <v>14907.69</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="P3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="10">
-        <v>42585</v>
-      </c>
-      <c r="E3" s="11">
-        <v>201610</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="21">
-        <v>1</v>
-      </c>
-      <c r="J3" s="16">
-        <v>87692.31</v>
-      </c>
-      <c r="K3" s="16">
-        <v>14907.69</v>
-      </c>
-      <c r="L3" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>26</v>
+      <c r="B4" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="10">
+        <v>28</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="10">
         <v>42662</v>
       </c>
-      <c r="E4" s="19">
+      <c r="F4" s="19">
         <v>201610</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="12" t="s">
+      <c r="G4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="21">
+      <c r="H4" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="21">
         <v>1</v>
       </c>
-      <c r="J4" s="16">
+      <c r="K4" s="16">
         <v>70771.84</v>
       </c>
-      <c r="K4" s="16">
+      <c r="L4" s="16">
         <v>2123.16</v>
       </c>
-      <c r="L4" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" s="17" t="s">
-        <v>21</v>
+      <c r="M4" s="16" t="s">
+        <v>30</v>
       </c>
       <c r="N4" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="O4" s="9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="O4" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
-      <c r="F6" s="20"/>
+      <c r="E6" s="20"/>
       <c r="G6" s="20"/>
       <c r="H6" s="20"/>
       <c r="I6" s="20"/>
@@ -2275,13 +2316,14 @@
       <c r="K6" s="20"/>
       <c r="L6" s="20"/>
       <c r="M6" s="20"/>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6" s="20"/>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="20"/>
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
-      <c r="F7" s="20"/>
+      <c r="E7" s="20"/>
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
       <c r="I7" s="20"/>
@@ -2289,13 +2331,14 @@
       <c r="K7" s="20"/>
       <c r="L7" s="20"/>
       <c r="M7" s="20"/>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="20"/>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="20"/>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
-      <c r="F8" s="20"/>
+      <c r="E8" s="20"/>
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
       <c r="I8" s="20"/>
@@ -2303,13 +2346,14 @@
       <c r="K8" s="20"/>
       <c r="L8" s="20"/>
       <c r="M8" s="20"/>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8" s="20"/>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="20"/>
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
-      <c r="F9" s="20"/>
+      <c r="E9" s="20"/>
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
       <c r="I9" s="20"/>
@@ -2317,13 +2361,14 @@
       <c r="K9" s="20"/>
       <c r="L9" s="20"/>
       <c r="M9" s="20"/>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="20"/>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="20"/>
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
-      <c r="F10" s="20"/>
+      <c r="E10" s="20"/>
       <c r="G10" s="20"/>
       <c r="H10" s="20"/>
       <c r="I10" s="20"/>
@@ -2331,13 +2376,14 @@
       <c r="K10" s="20"/>
       <c r="L10" s="20"/>
       <c r="M10" s="20"/>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="20"/>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="20"/>
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
-      <c r="F11" s="20"/>
+      <c r="E11" s="20"/>
       <c r="G11" s="20"/>
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
@@ -2345,13 +2391,14 @@
       <c r="K11" s="20"/>
       <c r="L11" s="20"/>
       <c r="M11" s="20"/>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="20"/>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="20"/>
       <c r="B12" s="20"/>
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
-      <c r="F12" s="20"/>
+      <c r="E12" s="20"/>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
@@ -2359,13 +2406,14 @@
       <c r="K12" s="20"/>
       <c r="L12" s="20"/>
       <c r="M12" s="20"/>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="20"/>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="20"/>
       <c r="B13" s="20"/>
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
-      <c r="F13" s="20"/>
+      <c r="E13" s="20"/>
       <c r="G13" s="20"/>
       <c r="H13" s="20"/>
       <c r="I13" s="20"/>
@@ -2373,13 +2421,14 @@
       <c r="K13" s="20"/>
       <c r="L13" s="20"/>
       <c r="M13" s="20"/>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13" s="20"/>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="20"/>
       <c r="B14" s="20"/>
       <c r="C14" s="20"/>
       <c r="D14" s="20"/>
-      <c r="F14" s="20"/>
+      <c r="E14" s="20"/>
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
@@ -2387,13 +2436,14 @@
       <c r="K14" s="20"/>
       <c r="L14" s="20"/>
       <c r="M14" s="20"/>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14" s="20"/>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="20"/>
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
       <c r="D15" s="20"/>
-      <c r="F15" s="20"/>
+      <c r="E15" s="20"/>
       <c r="G15" s="20"/>
       <c r="H15" s="20"/>
       <c r="I15" s="20"/>
@@ -2401,10 +2451,11 @@
       <c r="K15" s="20"/>
       <c r="L15" s="20"/>
       <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A6:M15"/>
+    <mergeCell ref="A6:N15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -2414,29 +2465,30 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="5.125" customWidth="1"/>
-    <col min="2" max="2" width="11.625" customWidth="1"/>
-    <col min="4" max="4" width="11.625" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="9" max="9" width="12.75" style="3" customWidth="1"/>
-    <col min="10" max="10" width="11.625" customWidth="1"/>
-    <col min="12" max="12" width="18.375" customWidth="1"/>
-    <col min="13" max="13" width="27.625" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="11.625" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="10" max="10" width="12.75" style="3" customWidth="1"/>
+    <col min="11" max="11" width="11.625" customWidth="1"/>
+    <col min="13" max="13" width="18.375" customWidth="1"/>
+    <col min="14" max="14" width="27.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
@@ -2445,88 +2497,97 @@
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>15</v>
+      <c r="B2" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="10">
+        <v>17</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="10">
         <v>43489</v>
       </c>
-      <c r="E2" s="11">
+      <c r="F2" s="11">
         <v>201901</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="15">
+      <c r="H2" s="12"/>
+      <c r="I2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="15">
         <v>5</v>
       </c>
-      <c r="J2" s="16">
+      <c r="K2" s="16">
         <v>15533.98</v>
       </c>
-      <c r="K2" s="16">
+      <c r="L2" s="16">
         <v>466.02</v>
       </c>
-      <c r="L2" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" s="17" t="s">
-        <v>32</v>
+      <c r="M2" s="16" t="s">
+        <v>33</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L2 L3:L1048576">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:B$1048576">
+      <formula1>"增值税专用发票,增值税普通发票"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M2 M3:M1048576">
       <formula1>业务类型!$A$1:$A$72</formula1>
     </dataValidation>
   </dataValidations>
@@ -2555,401 +2616,401 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B37" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" t="s">
         <v>72</v>
-      </c>
-      <c r="B39" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B40" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B41" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B42" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
